--- a/Wolves_Filtered_100.xlsx
+++ b/Wolves_Filtered_100.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolyn/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolyn/Desktop/Practice_Data_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8243BD00-7D9E-3944-B7FB-7534CCB3803D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDF2A8B-5B5C-BE42-9292-B67A1DFCDB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{880A6FE7-E706-6844-BE22-28889B5D7842}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19300" xr2:uid="{880A6FE7-E706-6844-BE22-28889B5D7842}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:GA41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Wolves_Filtered_100.xlsx
+++ b/Wolves_Filtered_100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolyn/Desktop/Practice_Data_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDF2A8B-5B5C-BE42-9292-B67A1DFCDB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A5E0A8-24AA-A949-90BF-7201B7C633FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19300" xr2:uid="{880A6FE7-E706-6844-BE22-28889B5D7842}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" xr2:uid="{880A6FE7-E706-6844-BE22-28889B5D7842}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1088,1296 +1088,1119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD5E2F3-D711-A34B-8725-8FCD50E0D0FA}">
-  <dimension ref="A1:GA41"/>
+  <dimension ref="A1:GA40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:183" x14ac:dyDescent="0.2">
-      <c r="C1">
-        <f t="shared" ref="C1:BN1" si="0">SUM(C3:C41)</f>
-        <v>28087</v>
-      </c>
-      <c r="D1">
-        <f t="shared" si="0"/>
-        <v>25981</v>
-      </c>
-      <c r="E1">
-        <f t="shared" si="0"/>
-        <v>21579</v>
-      </c>
-      <c r="F1">
-        <f t="shared" si="0"/>
-        <v>20157</v>
-      </c>
-      <c r="G1">
-        <f t="shared" si="0"/>
-        <v>19553</v>
-      </c>
-      <c r="H1">
-        <f t="shared" si="0"/>
-        <v>19072</v>
-      </c>
-      <c r="I1">
-        <f t="shared" si="0"/>
-        <v>18523</v>
-      </c>
-      <c r="J1">
-        <f t="shared" si="0"/>
-        <v>16725</v>
-      </c>
-      <c r="K1">
-        <f t="shared" si="0"/>
-        <v>15593</v>
-      </c>
-      <c r="L1">
-        <f t="shared" si="0"/>
-        <v>15282</v>
-      </c>
-      <c r="M1">
-        <f t="shared" si="0"/>
-        <v>14159</v>
-      </c>
-      <c r="N1">
-        <f t="shared" si="0"/>
-        <v>13240</v>
-      </c>
-      <c r="O1">
-        <f t="shared" si="0"/>
-        <v>11528</v>
-      </c>
-      <c r="P1">
-        <f t="shared" si="0"/>
-        <v>11388</v>
-      </c>
-      <c r="Q1">
-        <f t="shared" si="0"/>
-        <v>10526</v>
-      </c>
-      <c r="R1">
-        <f t="shared" si="0"/>
-        <v>10417</v>
-      </c>
-      <c r="S1">
-        <f t="shared" si="0"/>
-        <v>9439</v>
-      </c>
-      <c r="T1">
-        <f t="shared" si="0"/>
-        <v>8724</v>
-      </c>
-      <c r="U1">
-        <f t="shared" si="0"/>
-        <v>8643</v>
-      </c>
-      <c r="V1">
-        <f t="shared" si="0"/>
-        <v>8459</v>
-      </c>
-      <c r="W1">
-        <f t="shared" si="0"/>
-        <v>6772</v>
-      </c>
-      <c r="X1">
-        <f t="shared" si="0"/>
-        <v>6520</v>
-      </c>
-      <c r="Y1">
-        <f t="shared" si="0"/>
-        <v>6470</v>
-      </c>
-      <c r="Z1">
-        <f t="shared" si="0"/>
-        <v>6309</v>
-      </c>
-      <c r="AA1">
-        <f t="shared" si="0"/>
-        <v>6085</v>
-      </c>
-      <c r="AB1">
-        <f t="shared" si="0"/>
-        <v>5820</v>
-      </c>
-      <c r="AC1">
-        <f t="shared" si="0"/>
-        <v>5689</v>
-      </c>
-      <c r="AD1">
-        <f t="shared" si="0"/>
-        <v>5622</v>
-      </c>
-      <c r="AE1">
-        <f t="shared" si="0"/>
-        <v>5562</v>
-      </c>
-      <c r="AF1">
-        <f t="shared" si="0"/>
-        <v>5155</v>
-      </c>
-      <c r="AG1">
-        <f t="shared" si="0"/>
-        <v>5022</v>
-      </c>
-      <c r="AH1">
-        <f t="shared" si="0"/>
-        <v>4906</v>
-      </c>
-      <c r="AI1">
-        <f t="shared" si="0"/>
-        <v>4614</v>
-      </c>
-      <c r="AJ1">
-        <f t="shared" si="0"/>
-        <v>4531</v>
-      </c>
-      <c r="AK1">
-        <f t="shared" si="0"/>
-        <v>4455</v>
-      </c>
-      <c r="AL1">
-        <f t="shared" si="0"/>
-        <v>4387</v>
-      </c>
-      <c r="AM1">
-        <f t="shared" si="0"/>
-        <v>4327</v>
-      </c>
-      <c r="AN1">
-        <f t="shared" si="0"/>
-        <v>4255</v>
-      </c>
-      <c r="AO1">
-        <f t="shared" si="0"/>
-        <v>3952</v>
-      </c>
-      <c r="AP1">
-        <f t="shared" si="0"/>
-        <v>3929</v>
-      </c>
-      <c r="AQ1">
-        <f t="shared" si="0"/>
-        <v>3778</v>
-      </c>
-      <c r="AR1">
-        <f t="shared" si="0"/>
-        <v>3450</v>
-      </c>
-      <c r="AS1">
-        <f t="shared" si="0"/>
-        <v>3272</v>
-      </c>
-      <c r="AT1">
-        <f t="shared" si="0"/>
-        <v>3311</v>
-      </c>
-      <c r="AU1">
-        <f t="shared" si="0"/>
-        <v>3296</v>
-      </c>
-      <c r="AV1">
-        <f t="shared" si="0"/>
-        <v>3270</v>
-      </c>
-      <c r="AW1">
-        <f t="shared" si="0"/>
-        <v>3111</v>
-      </c>
-      <c r="AX1">
-        <f t="shared" si="0"/>
-        <v>3118</v>
-      </c>
-      <c r="AY1">
-        <f t="shared" si="0"/>
-        <v>2929</v>
-      </c>
-      <c r="AZ1">
-        <f t="shared" si="0"/>
-        <v>2957</v>
-      </c>
-      <c r="BA1">
-        <f t="shared" si="0"/>
-        <v>2948</v>
-      </c>
-      <c r="BB1">
-        <f t="shared" si="0"/>
-        <v>2911</v>
-      </c>
-      <c r="BC1">
-        <f t="shared" si="0"/>
-        <v>2349</v>
-      </c>
-      <c r="BD1">
-        <f t="shared" si="0"/>
-        <v>2309</v>
-      </c>
-      <c r="BE1">
-        <f t="shared" si="0"/>
-        <v>2115</v>
-      </c>
-      <c r="BF1">
-        <f t="shared" si="0"/>
-        <v>2052</v>
-      </c>
-      <c r="BG1">
-        <f t="shared" si="0"/>
-        <v>2046</v>
-      </c>
-      <c r="BH1">
-        <f t="shared" si="0"/>
-        <v>1808</v>
-      </c>
-      <c r="BI1">
-        <f t="shared" si="0"/>
-        <v>1721</v>
-      </c>
-      <c r="BJ1">
-        <f t="shared" si="0"/>
-        <v>1684</v>
-      </c>
-      <c r="BK1">
-        <f t="shared" si="0"/>
-        <v>1632</v>
-      </c>
-      <c r="BL1">
-        <f t="shared" si="0"/>
-        <v>1536</v>
-      </c>
-      <c r="BM1">
-        <f t="shared" si="0"/>
-        <v>1521</v>
-      </c>
-      <c r="BN1">
-        <f t="shared" si="0"/>
-        <v>1514</v>
-      </c>
-      <c r="BO1">
-        <f t="shared" ref="BO1:DI1" si="1">SUM(BO3:BO41)</f>
-        <v>1444</v>
-      </c>
-      <c r="BP1">
-        <f t="shared" si="1"/>
-        <v>1435</v>
-      </c>
-      <c r="BQ1">
-        <f t="shared" si="1"/>
-        <v>1355</v>
-      </c>
-      <c r="BR1">
-        <f t="shared" si="1"/>
-        <v>1325</v>
-      </c>
-      <c r="BS1">
-        <f t="shared" si="1"/>
-        <v>1267</v>
-      </c>
-      <c r="BT1">
-        <f t="shared" si="1"/>
-        <v>1239</v>
-      </c>
-      <c r="BU1">
-        <f t="shared" si="1"/>
-        <v>1159</v>
-      </c>
-      <c r="BV1">
-        <f t="shared" si="1"/>
-        <v>949</v>
-      </c>
-      <c r="BW1">
-        <f t="shared" si="1"/>
-        <v>1151</v>
-      </c>
-      <c r="BX1">
-        <f t="shared" si="1"/>
-        <v>1055</v>
-      </c>
-      <c r="BY1">
-        <f t="shared" si="1"/>
-        <v>1031</v>
-      </c>
-      <c r="BZ1">
-        <f t="shared" si="1"/>
-        <v>948</v>
-      </c>
-      <c r="CA1">
-        <f t="shared" si="1"/>
-        <v>958</v>
-      </c>
-      <c r="CB1">
-        <f t="shared" si="1"/>
-        <v>904</v>
-      </c>
-      <c r="CC1">
-        <f t="shared" si="1"/>
-        <v>895</v>
-      </c>
-      <c r="CD1">
-        <f t="shared" si="1"/>
-        <v>787</v>
-      </c>
-      <c r="CE1">
-        <f t="shared" si="1"/>
-        <v>733</v>
-      </c>
-      <c r="CF1">
-        <f t="shared" si="1"/>
-        <v>644</v>
-      </c>
-      <c r="CG1">
-        <f t="shared" si="1"/>
-        <v>577</v>
-      </c>
-      <c r="CH1">
-        <f t="shared" si="1"/>
-        <v>572</v>
-      </c>
-      <c r="CI1">
-        <f t="shared" si="1"/>
-        <v>525</v>
-      </c>
-      <c r="CJ1">
-        <f t="shared" si="1"/>
-        <v>545</v>
-      </c>
-      <c r="CK1">
-        <f t="shared" si="1"/>
-        <v>542</v>
-      </c>
-      <c r="CL1">
-        <f t="shared" si="1"/>
-        <v>524</v>
-      </c>
-      <c r="CM1">
-        <f t="shared" si="1"/>
-        <v>508</v>
-      </c>
-      <c r="CN1">
-        <f t="shared" si="1"/>
-        <v>378</v>
-      </c>
-      <c r="CO1">
-        <f t="shared" si="1"/>
-        <v>393</v>
-      </c>
-      <c r="CP1">
-        <f t="shared" si="1"/>
-        <v>439</v>
-      </c>
-      <c r="CQ1">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="CR1">
-        <f t="shared" si="1"/>
-        <v>332</v>
-      </c>
-      <c r="CS1">
-        <f t="shared" si="1"/>
-        <v>355</v>
-      </c>
-      <c r="CT1">
-        <f t="shared" si="1"/>
-        <v>316</v>
-      </c>
-      <c r="CU1">
-        <f t="shared" si="1"/>
-        <v>346</v>
-      </c>
-      <c r="CV1">
-        <f t="shared" si="1"/>
-        <v>280</v>
-      </c>
-      <c r="CW1">
-        <f t="shared" si="1"/>
-        <v>296</v>
-      </c>
-      <c r="CX1">
-        <f t="shared" si="1"/>
-        <v>328</v>
-      </c>
-      <c r="CY1">
-        <f t="shared" si="1"/>
-        <v>324</v>
-      </c>
-      <c r="CZ1">
-        <f t="shared" si="1"/>
-        <v>282</v>
-      </c>
-      <c r="DA1">
-        <f t="shared" si="1"/>
-        <v>237</v>
-      </c>
-      <c r="DB1">
-        <f t="shared" si="1"/>
-        <v>249</v>
-      </c>
-      <c r="DC1">
-        <f t="shared" si="1"/>
-        <v>242</v>
-      </c>
-      <c r="DD1">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-      <c r="DE1">
-        <f t="shared" si="1"/>
-        <v>234</v>
-      </c>
-      <c r="DF1">
-        <f t="shared" si="1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="DG1">
-        <f t="shared" si="1"/>
-        <v>214</v>
-      </c>
-      <c r="DH1">
-        <f t="shared" si="1"/>
-        <v>213</v>
-      </c>
-      <c r="DI1">
-        <f t="shared" si="1"/>
-        <v>207</v>
-      </c>
-      <c r="DJ1">
-        <v>0</v>
-      </c>
-      <c r="DK1" s="1">
-        <f t="shared" ref="DK1:FV1" si="2">SUM(DK3:DK41)</f>
-        <v>199</v>
-      </c>
-      <c r="DL1" s="1">
-        <f t="shared" si="2"/>
-        <v>193</v>
-      </c>
-      <c r="DM1" s="1">
-        <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="DN1" s="1">
-        <f t="shared" si="2"/>
+      <c r="EH1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="DO1" s="1">
-        <f t="shared" si="2"/>
-        <v>145</v>
-      </c>
-      <c r="DP1" s="1">
-        <f t="shared" si="2"/>
-        <v>137</v>
-      </c>
-      <c r="DQ1" s="1">
-        <f t="shared" si="2"/>
-        <v>137</v>
-      </c>
-      <c r="DR1" s="1">
-        <f t="shared" si="2"/>
-        <v>137</v>
-      </c>
-      <c r="DS1" s="1">
-        <f t="shared" si="2"/>
-        <v>118</v>
-      </c>
-      <c r="DT1" s="1">
-        <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
-      <c r="DU1" s="1">
-        <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
-      <c r="DV1" s="1">
-        <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-      <c r="DW1" s="1">
-        <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="DX1" s="1">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="DY1" s="1">
-        <f t="shared" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="DZ1" s="1">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="EA1" s="1">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="EB1" s="1">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="EC1" s="1">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="ED1" s="1">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="EE1" s="1">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="EF1" s="1">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="EG1" s="1">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="EH1" s="1">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="EI1" s="1">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="EJ1" s="1">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="EK1" s="1">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="EL1" s="1">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="EM1" s="1">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="EN1" s="1">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="EO1" s="1">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="EP1" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="EQ1" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="ER1" s="1">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="ES1" s="1">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="ET1" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="EU1" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="EV1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="EW1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="EX1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="EY1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="EZ1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FA1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FB1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FC1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FD1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FE1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FF1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FG1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FH1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FI1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FJ1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FK1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FL1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FM1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FN1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FO1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FP1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FQ1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FR1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FS1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FT1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FU1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FV1" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="FW1" s="1">
-        <f t="shared" ref="FW1:GA1" si="3">SUM(FW3:FW41)</f>
-        <v>0</v>
-      </c>
-      <c r="FX1" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="FY1" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="FZ1" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="GA1" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="FK1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2">
+        <v>35207</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>20157</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>15002</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER2" s="1">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EH2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EK2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EL2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EW2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EX2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="EZ2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FA2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FB2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FC2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FD2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FE2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FF2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FG2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FJ2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FK2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FL2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FM2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FZ2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA2" s="1" t="s">
-        <v>182</v>
+      <c r="ES2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ET2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="GA2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B3">
-        <v>35207</v>
+        <v>2246</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2389,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20157</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2404,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15002</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2566,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>1521</v>
       </c>
       <c r="BN3">
         <v>0</v>
@@ -2623,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="CF3">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="CG3">
         <v>0</v>
@@ -2647,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="CO3">
         <v>0</v>
@@ -2812,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="ER3" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="ES3" s="1">
         <v>0</v>
@@ -2922,10 +2745,10 @@
     </row>
     <row r="4" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B4">
-        <v>2246</v>
+        <v>307</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3114,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="BM4">
-        <v>1521</v>
+        <v>0</v>
       </c>
       <c r="BN4">
         <v>0</v>
@@ -3171,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="CF4">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="CG4">
         <v>0</v>
@@ -3195,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="CN4">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="CO4">
         <v>0</v>
@@ -3469,11 +3292,11 @@
       </c>
     </row>
     <row r="5" spans="1:183" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>185</v>
+      <c r="A5" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="B5">
-        <v>307</v>
+        <v>34280</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3515,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -3536,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>6772</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -3560,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>5562</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>5155</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -3581,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>4387</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>4255</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -3620,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>2929</v>
       </c>
       <c r="AZ5">
         <v>0</v>
@@ -3650,13 +3473,13 @@
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="BJ5">
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>1515</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -3716,16 +3539,16 @@
         <v>0</v>
       </c>
       <c r="CE5">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="CF5">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="CH5">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="CI5">
         <v>0</v>
@@ -3767,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="CV5">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="CW5">
         <v>0</v>
@@ -3776,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="CY5">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="CZ5">
         <v>0</v>
@@ -3854,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="DZ5" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="EA5" s="1">
         <v>0</v>
@@ -3934,9 +3757,7 @@
       <c r="EZ5" s="1">
         <v>0</v>
       </c>
-      <c r="FA5" s="1">
-        <v>0</v>
-      </c>
+      <c r="FA5" s="1"/>
       <c r="FB5" s="1">
         <v>0</v>
       </c>
@@ -3988,9 +3809,7 @@
       <c r="FR5" s="1">
         <v>0</v>
       </c>
-      <c r="FS5" s="1">
-        <v>0</v>
-      </c>
+      <c r="FS5" s="1"/>
       <c r="FT5" s="1">
         <v>0</v>
       </c>
@@ -4017,11 +3836,11 @@
       </c>
     </row>
     <row r="6" spans="1:183" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>186</v>
+      <c r="A6" t="s">
+        <v>187</v>
       </c>
       <c r="B6">
-        <v>34280</v>
+        <v>82799</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4036,13 +3855,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>19553</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>18523</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4060,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9887</v>
       </c>
       <c r="P6">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>10526</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -4084,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>6772</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -4105,16 +3924,16 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>3331</v>
       </c>
       <c r="AE6">
-        <v>5562</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>5155</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>5022</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -4129,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>4387</v>
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>4255</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -4165,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>3118</v>
       </c>
       <c r="AY6">
-        <v>2929</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
         <v>0</v>
@@ -4180,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>2349</v>
       </c>
       <c r="BD6">
         <v>0</v>
@@ -4189,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>2052</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -4198,13 +4017,13 @@
         <v>0</v>
       </c>
       <c r="BI6">
-        <v>1478</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
         <v>0</v>
       </c>
       <c r="BK6">
-        <v>1515</v>
+        <v>0</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -4222,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0</v>
+        <v>1355</v>
       </c>
       <c r="BR6">
         <v>0</v>
@@ -4240,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="BX6">
         <v>0</v>
@@ -4249,31 +4068,31 @@
         <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0</v>
+        <v>948</v>
       </c>
       <c r="CA6">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="CB6">
-        <v>0</v>
+        <v>904</v>
       </c>
       <c r="CC6">
         <v>0</v>
       </c>
       <c r="CD6">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="CE6">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="CF6">
         <v>0</v>
       </c>
       <c r="CG6">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="CI6">
         <v>0</v>
@@ -4297,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="CP6">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="CQ6">
         <v>0</v>
       </c>
       <c r="CR6">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="CS6">
         <v>0</v>
@@ -4315,16 +4134,16 @@
         <v>0</v>
       </c>
       <c r="CV6">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="CW6">
         <v>0</v>
       </c>
       <c r="CX6">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="CY6">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
         <v>0</v>
@@ -4333,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="DB6">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="DC6">
         <v>0</v>
@@ -4351,16 +4170,16 @@
         <v>0</v>
       </c>
       <c r="DH6">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="DI6">
         <v>0</v>
       </c>
       <c r="DK6" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="DL6" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="DM6" s="1">
         <v>0</v>
@@ -4375,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="DQ6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DR6" s="1">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="DS6" s="1">
         <v>0</v>
@@ -4393,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="DW6" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="DX6" s="1">
         <v>0</v>
@@ -4402,13 +4221,13 @@
         <v>0</v>
       </c>
       <c r="DZ6" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="EA6" s="1">
         <v>0</v>
       </c>
       <c r="EB6" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="EC6" s="1">
         <v>0</v>
@@ -4420,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="EF6" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="EG6" s="1">
         <v>0</v>
@@ -4441,10 +4260,10 @@
         <v>0</v>
       </c>
       <c r="EM6" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="EN6" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="EO6" s="1">
         <v>0</v>
@@ -4465,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="EU6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EV6" s="1">
         <v>0</v>
@@ -4482,7 +4301,9 @@
       <c r="EZ6" s="1">
         <v>0</v>
       </c>
-      <c r="FA6" s="1"/>
+      <c r="FA6" s="1">
+        <v>0</v>
+      </c>
       <c r="FB6" s="1">
         <v>0</v>
       </c>
@@ -4534,7 +4355,9 @@
       <c r="FR6" s="1">
         <v>0</v>
       </c>
-      <c r="FS6" s="1"/>
+      <c r="FS6" s="1">
+        <v>0</v>
+      </c>
       <c r="FT6" s="1">
         <v>0</v>
       </c>
@@ -4562,10 +4385,10 @@
     </row>
     <row r="7" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B7">
-        <v>82799</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4580,13 +4403,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>19553</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18523</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4604,13 +4427,13 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9887</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10526</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -4649,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>3331</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -4658,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>5022</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -4682,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -4709,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>3118</v>
+        <v>0</v>
       </c>
       <c r="AY7">
         <v>0</v>
@@ -4724,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>2349</v>
+        <v>0</v>
       </c>
       <c r="BD7">
         <v>0</v>
@@ -4733,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="BF7">
-        <v>2052</v>
+        <v>0</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -4766,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="BQ7">
-        <v>1355</v>
+        <v>0</v>
       </c>
       <c r="BR7">
         <v>0</v>
@@ -4784,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="BW7">
-        <v>1151</v>
+        <v>0</v>
       </c>
       <c r="BX7">
         <v>0</v>
@@ -4793,19 +4616,19 @@
         <v>0</v>
       </c>
       <c r="BZ7">
-        <v>948</v>
+        <v>0</v>
       </c>
       <c r="CA7">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="CB7">
-        <v>904</v>
+        <v>0</v>
       </c>
       <c r="CC7">
         <v>0</v>
       </c>
       <c r="CD7">
-        <v>787</v>
+        <v>0</v>
       </c>
       <c r="CE7">
         <v>0</v>
@@ -4841,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CP7">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="CQ7">
         <v>0</v>
       </c>
       <c r="CR7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="CS7">
         <v>0</v>
@@ -4865,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="CX7">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="CY7">
         <v>0</v>
@@ -4877,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="DB7">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="DC7">
         <v>0</v>
@@ -4895,16 +4718,16 @@
         <v>0</v>
       </c>
       <c r="DH7">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="DI7">
         <v>0</v>
       </c>
       <c r="DK7" s="1">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="DL7" s="1">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="DM7" s="1">
         <v>0</v>
@@ -4919,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="DQ7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="DR7" s="1">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="DS7" s="1">
         <v>0</v>
@@ -4937,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="DW7" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="DX7" s="1">
         <v>0</v>
@@ -4952,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="EB7" s="1">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="EC7" s="1">
         <v>0</v>
@@ -4964,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="EF7" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="EG7" s="1">
         <v>0</v>
@@ -4985,10 +4808,10 @@
         <v>0</v>
       </c>
       <c r="EM7" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="EN7" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="EO7" s="1">
         <v>0</v>
@@ -5009,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="EU7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EV7" s="1">
         <v>0</v>
@@ -5110,10 +4933,10 @@
     </row>
     <row r="8" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>2563</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -5152,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1641</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -5371,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="CJ8">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="CK8">
         <v>0</v>
@@ -5401,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="CT8">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="CU8">
         <v>0</v>
@@ -5458,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="DN8" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="DO8" s="1">
         <v>0</v>
@@ -5530,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="EL8" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="EM8" s="1">
         <v>0</v>
@@ -5658,10 +5481,10 @@
     </row>
     <row r="9" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B9">
-        <v>2563</v>
+        <v>1238</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -5700,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1641</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -5781,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1231</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -5919,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="CJ9">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="CK9">
         <v>0</v>
@@ -5949,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="CT9">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="CU9">
         <v>0</v>
@@ -6006,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="DN9" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="DO9" s="1">
         <v>0</v>
@@ -6078,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="EL9" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="EM9" s="1">
         <v>0</v>
@@ -6099,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="ES9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="ET9" s="1">
         <v>0</v>
@@ -6206,10 +6029,10 @@
     </row>
     <row r="10" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B10">
-        <v>1238</v>
+        <v>3899</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -6329,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1231</v>
+        <v>2262</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -6386,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="BI10">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="BJ10">
         <v>0</v>
@@ -6422,10 +6245,10 @@
         <v>0</v>
       </c>
       <c r="BU10">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="BV10">
-        <v>0</v>
+        <v>949</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -6494,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="CS10">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="CT10">
         <v>0</v>
@@ -6545,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="DK10" s="1">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="DL10" s="1">
         <v>0</v>
@@ -6584,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="DX10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DY10" s="1">
         <v>0</v>
@@ -6647,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="ES10" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="ET10" s="1">
         <v>0</v>
@@ -6754,10 +6577,10 @@
     </row>
     <row r="11" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B11">
-        <v>3899</v>
+        <v>209</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -6877,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -6934,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="BI11">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="BJ11">
         <v>0</v>
@@ -6970,10 +6793,10 @@
         <v>0</v>
       </c>
       <c r="BU11">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="BV11">
-        <v>949</v>
+        <v>0</v>
       </c>
       <c r="BW11">
         <v>0</v>
@@ -7012,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="CI11">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="CJ11">
         <v>0</v>
@@ -7042,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="CS11">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="CT11">
         <v>0</v>
@@ -7093,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="DK11" s="1">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="DL11" s="1">
         <v>0</v>
@@ -7132,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="DX11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DY11" s="1">
         <v>0</v>
@@ -7302,16 +7125,16 @@
     </row>
     <row r="12" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B12">
-        <v>209</v>
+        <v>36700</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>25981</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -7356,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -7416,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>4203</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -7431,10 +7254,10 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>2083</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>3272</v>
       </c>
       <c r="AT12">
         <v>0</v>
@@ -7560,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="CI12">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="CJ12">
         <v>0</v>
@@ -7620,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="DC12">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="DD12">
         <v>0</v>
@@ -7683,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="DY12" s="1">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="DZ12" s="1">
         <v>0</v>
@@ -7731,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="EO12" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="EP12" s="1">
         <v>0</v>
@@ -7850,16 +7673,16 @@
     </row>
     <row r="13" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B13">
-        <v>36700</v>
+        <v>410</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>25981</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -7904,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -7964,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>4203</v>
+        <v>0</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -7979,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>2083</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>3272</v>
+        <v>0</v>
       </c>
       <c r="AT13">
         <v>0</v>
@@ -8126,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="CO13">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="CP13">
         <v>0</v>
@@ -8168,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="DC13">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="DD13">
         <v>0</v>
@@ -8207,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="DQ13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DR13" s="1">
         <v>0</v>
@@ -8231,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="DY13" s="1">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="DZ13" s="1">
         <v>0</v>
@@ -8279,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="EO13" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="EP13" s="1">
         <v>0</v>
@@ -8398,10 +8221,10 @@
     </row>
     <row r="14" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B14">
-        <v>410</v>
+        <v>3001</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8554,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>2948</v>
       </c>
       <c r="BB14">
         <v>0</v>
@@ -8674,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="CO14">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="CP14">
         <v>0</v>
@@ -8755,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="DQ14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DR14" s="1">
         <v>0</v>
@@ -8946,10 +8769,10 @@
     </row>
     <row r="15" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B15">
-        <v>3001</v>
+        <v>24523</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8997,10 +8820,10 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>10133</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>8694</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -9030,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>5689</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -9102,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>2948</v>
+        <v>0</v>
       </c>
       <c r="BB15">
         <v>0</v>
@@ -9354,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="EH15" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="EI15" s="1">
         <v>0</v>
@@ -9494,13 +9317,13 @@
     </row>
     <row r="16" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B16">
-        <v>24523</v>
+        <v>327</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -9545,10 +9368,10 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>10133</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>8694</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -9578,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>5689</v>
+        <v>0</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -9902,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="EH16" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="EI16" s="1">
         <v>0</v>
@@ -10042,19 +9865,19 @@
     </row>
     <row r="17" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B17">
-        <v>327</v>
+        <v>46816</v>
       </c>
       <c r="C17">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>21579</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -10087,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>10092</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -10156,22 +9979,22 @@
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="AN17">
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>3834</v>
       </c>
       <c r="AP17">
         <v>0</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>3466</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1367</v>
       </c>
       <c r="AS17">
         <v>0</v>
@@ -10186,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="AW17">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="AX17">
         <v>0</v>
@@ -10207,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="BD17">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="BE17">
         <v>0</v>
@@ -10216,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="BG17">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="BH17">
         <v>0</v>
@@ -10249,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="BR17">
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="BS17">
         <v>0</v>
@@ -10267,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="BX17">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="BY17">
         <v>0</v>
@@ -10282,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="CC17">
-        <v>0</v>
+        <v>895</v>
       </c>
       <c r="CD17">
         <v>0</v>
@@ -10294,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="CG17">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="CH17">
         <v>0</v>
@@ -10306,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="CK17">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="CL17">
         <v>0</v>
@@ -10324,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="CQ17">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="CR17">
         <v>0</v>
@@ -10363,16 +10186,16 @@
         <v>0</v>
       </c>
       <c r="DD17">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="DE17">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="DF17">
         <v>0</v>
       </c>
       <c r="DG17">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="DH17">
         <v>0</v>
@@ -10387,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="DM17" s="1">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="DN17" s="1">
         <v>0</v>
@@ -10396,10 +10219,10 @@
         <v>0</v>
       </c>
       <c r="DP17" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="DQ17" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="DR17" s="1">
         <v>0</v>
@@ -10408,16 +10231,16 @@
         <v>0</v>
       </c>
       <c r="DT17" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="DU17" s="1">
         <v>0</v>
       </c>
       <c r="DV17" s="1">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="DW17" s="1">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="DX17" s="1">
         <v>0</v>
@@ -10429,25 +10252,25 @@
         <v>0</v>
       </c>
       <c r="EA17" s="1">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="EB17" s="1">
         <v>0</v>
       </c>
       <c r="EC17" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="ED17" s="1">
         <v>0</v>
       </c>
       <c r="EE17" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="EF17" s="1">
         <v>0</v>
       </c>
       <c r="EG17" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="EH17" s="1">
         <v>0</v>
@@ -10456,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="EJ17" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="EK17" s="1">
         <v>0</v>
@@ -10477,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="EQ17" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="ER17" s="1">
         <v>0</v>
@@ -10486,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="ET17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="EU17" s="1">
         <v>0</v>
@@ -10590,10 +10413,10 @@
     </row>
     <row r="18" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18">
-        <v>46816</v>
+        <v>305</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -10602,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>21579</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -10635,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>10092</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -10704,22 +10527,22 @@
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="AN18">
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>3834</v>
+        <v>0</v>
       </c>
       <c r="AP18">
         <v>0</v>
       </c>
       <c r="AQ18">
-        <v>3466</v>
+        <v>0</v>
       </c>
       <c r="AR18">
-        <v>1367</v>
+        <v>0</v>
       </c>
       <c r="AS18">
         <v>0</v>
@@ -10734,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="AW18">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="AX18">
         <v>0</v>
@@ -10755,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="BD18">
-        <v>848</v>
+        <v>0</v>
       </c>
       <c r="BE18">
         <v>0</v>
@@ -10764,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="BG18">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="BH18">
         <v>0</v>
@@ -10797,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="BR18">
-        <v>1161</v>
+        <v>0</v>
       </c>
       <c r="BS18">
         <v>0</v>
@@ -10815,7 +10638,7 @@
         <v>0</v>
       </c>
       <c r="BX18">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="BY18">
         <v>0</v>
@@ -10830,19 +10653,19 @@
         <v>0</v>
       </c>
       <c r="CC18">
-        <v>895</v>
+        <v>0</v>
       </c>
       <c r="CD18">
         <v>0</v>
       </c>
       <c r="CE18">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="CF18">
         <v>0</v>
       </c>
       <c r="CG18">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="CH18">
         <v>0</v>
@@ -10854,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="CK18">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="CL18">
         <v>0</v>
@@ -10872,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="CQ18">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="CR18">
         <v>0</v>
@@ -10911,16 +10734,16 @@
         <v>0</v>
       </c>
       <c r="DD18">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="DE18">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="DF18">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="DG18">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="DH18">
         <v>0</v>
@@ -10935,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="DM18" s="1">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="DN18" s="1">
         <v>0</v>
@@ -10944,10 +10767,10 @@
         <v>0</v>
       </c>
       <c r="DP18" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="DQ18" s="1">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="DR18" s="1">
         <v>0</v>
@@ -10956,16 +10779,16 @@
         <v>0</v>
       </c>
       <c r="DT18" s="1">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="DU18" s="1">
         <v>0</v>
       </c>
       <c r="DV18" s="1">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="DW18" s="1">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="DX18" s="1">
         <v>0</v>
@@ -10977,25 +10800,25 @@
         <v>0</v>
       </c>
       <c r="EA18" s="1">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="EB18" s="1">
         <v>0</v>
       </c>
       <c r="EC18" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="ED18" s="1">
         <v>0</v>
       </c>
       <c r="EE18" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="EF18" s="1">
         <v>0</v>
       </c>
       <c r="EG18" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="EH18" s="1">
         <v>0</v>
@@ -11004,7 +10827,7 @@
         <v>0</v>
       </c>
       <c r="EJ18" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="EK18" s="1">
         <v>0</v>
@@ -11025,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="EQ18" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="ER18" s="1">
         <v>0</v>
@@ -11034,7 +10857,7 @@
         <v>0</v>
       </c>
       <c r="ET18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="EU18" s="1">
         <v>0</v>
@@ -11138,10 +10961,10 @@
     </row>
     <row r="19" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -11198,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -11384,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="CE19">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="CF19">
         <v>0</v>
@@ -11408,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="CM19">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="CN19">
         <v>0</v>
@@ -11465,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="DF19">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="DG19">
         <v>0</v>
@@ -11686,10 +11509,10 @@
     </row>
     <row r="20" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B20">
-        <v>399</v>
+        <v>811</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -11746,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -11911,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="BX20">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="BY20">
         <v>0</v>
@@ -11944,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="CI20">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="CJ20">
         <v>0</v>
@@ -11956,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="CM20">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="CN20">
         <v>0</v>
@@ -12234,10 +12057,10 @@
     </row>
     <row r="21" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B21">
-        <v>811</v>
+        <v>2291</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -12321,7 +12144,7 @@
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2291</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -12459,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="BX21">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="BY21">
         <v>0</v>
@@ -12492,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="CI21">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="CJ21">
         <v>0</v>
@@ -12782,13 +12605,13 @@
     </row>
     <row r="22" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22">
-        <v>2291</v>
+        <v>27760</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>27760</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -12869,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>2291</v>
+        <v>0</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -13330,13 +13153,13 @@
     </row>
     <row r="23" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B23">
-        <v>27760</v>
+        <v>45</v>
       </c>
       <c r="C23">
-        <v>27760</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -13878,10 +13701,10 @@
     </row>
     <row r="24" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B24">
-        <v>45</v>
+        <v>1444</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -14076,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="BO24">
-        <v>0</v>
+        <v>1444</v>
       </c>
       <c r="BP24">
         <v>0</v>
@@ -14426,10 +14249,10 @@
     </row>
     <row r="25" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B25">
-        <v>1444</v>
+        <v>4548</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -14507,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>4542</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -14624,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="BO25">
-        <v>1444</v>
+        <v>0</v>
       </c>
       <c r="BP25">
         <v>0</v>
@@ -14974,10 +14797,10 @@
     </row>
     <row r="26" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B26">
-        <v>4548</v>
+        <v>915</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -15055,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>4542</v>
+        <v>124</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -15097,7 +14920,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -15139,7 +14962,7 @@
         <v>0</v>
       </c>
       <c r="BD26">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="BE26">
         <v>0</v>
@@ -15160,7 +14983,7 @@
         <v>0</v>
       </c>
       <c r="BK26">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="BL26">
         <v>0</v>
@@ -15328,7 +15151,7 @@
         <v>0</v>
       </c>
       <c r="DP26" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="DQ26" s="1">
         <v>0</v>
@@ -15522,344 +15345,344 @@
     </row>
     <row r="27" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27">
+        <v>156148</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>19072</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>16725</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>15282</v>
+      </c>
+      <c r="M27">
+        <v>14159</v>
+      </c>
+      <c r="N27">
+        <v>13240</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>8724</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>8459</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>6470</v>
+      </c>
+      <c r="Z27">
+        <v>6309</v>
+      </c>
+      <c r="AA27">
+        <v>6085</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>4906</v>
+      </c>
+      <c r="AI27">
+        <v>4614</v>
+      </c>
+      <c r="AJ27">
+        <v>4531</v>
+      </c>
+      <c r="AK27">
+        <v>4455</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>114</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>3311</v>
+      </c>
+      <c r="AU27">
+        <v>3296</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>2957</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>2911</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>1352</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>1808</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>1684</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>1514</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>1239</v>
+      </c>
+      <c r="BU27">
+        <v>1045</v>
+      </c>
+      <c r="BV27">
+        <v>0</v>
+      </c>
+      <c r="BW27">
+        <v>0</v>
+      </c>
+      <c r="BX27">
+        <v>0</v>
+      </c>
+      <c r="BY27">
+        <v>0</v>
+      </c>
+      <c r="BZ27">
+        <v>0</v>
+      </c>
+      <c r="CA27">
+        <v>0</v>
+      </c>
+      <c r="CB27">
+        <v>0</v>
+      </c>
+      <c r="CC27">
+        <v>0</v>
+      </c>
+      <c r="CD27">
+        <v>0</v>
+      </c>
+      <c r="CE27">
+        <v>0</v>
+      </c>
+      <c r="CF27">
+        <v>0</v>
+      </c>
+      <c r="CG27">
+        <v>0</v>
+      </c>
+      <c r="CH27">
+        <v>0</v>
+      </c>
+      <c r="CI27">
+        <v>0</v>
+      </c>
+      <c r="CJ27">
+        <v>0</v>
+      </c>
+      <c r="CK27">
+        <v>0</v>
+      </c>
+      <c r="CL27">
+        <v>524</v>
+      </c>
+      <c r="CM27">
+        <v>0</v>
+      </c>
+      <c r="CN27">
+        <v>0</v>
+      </c>
+      <c r="CO27">
+        <v>0</v>
+      </c>
+      <c r="CP27">
+        <v>0</v>
+      </c>
+      <c r="CQ27">
+        <v>0</v>
+      </c>
+      <c r="CR27">
+        <v>0</v>
+      </c>
+      <c r="CS27">
+        <v>0</v>
+      </c>
+      <c r="CT27">
+        <v>0</v>
+      </c>
+      <c r="CU27">
+        <v>346</v>
+      </c>
+      <c r="CV27">
+        <v>0</v>
+      </c>
+      <c r="CW27">
+        <v>0</v>
+      </c>
+      <c r="CX27">
+        <v>0</v>
+      </c>
+      <c r="CY27">
+        <v>0</v>
+      </c>
+      <c r="CZ27">
+        <v>0</v>
+      </c>
+      <c r="DA27">
+        <v>237</v>
+      </c>
+      <c r="DB27">
+        <v>0</v>
+      </c>
+      <c r="DC27">
+        <v>0</v>
+      </c>
+      <c r="DD27">
+        <v>0</v>
+      </c>
+      <c r="DE27">
+        <v>0</v>
+      </c>
+      <c r="DF27">
+        <v>0</v>
+      </c>
+      <c r="DG27">
+        <v>0</v>
+      </c>
+      <c r="DH27">
+        <v>0</v>
+      </c>
+      <c r="DI27">
         <v>207</v>
       </c>
-      <c r="B27">
-        <v>915</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>124</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>322</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27">
-        <v>0</v>
-      </c>
-      <c r="BC27">
-        <v>0</v>
-      </c>
-      <c r="BD27">
-        <v>109</v>
-      </c>
-      <c r="BE27">
-        <v>0</v>
-      </c>
-      <c r="BF27">
-        <v>0</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>0</v>
-      </c>
-      <c r="BI27">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
-      </c>
-      <c r="BK27">
-        <v>117</v>
-      </c>
-      <c r="BL27">
-        <v>0</v>
-      </c>
-      <c r="BM27">
-        <v>0</v>
-      </c>
-      <c r="BN27">
-        <v>0</v>
-      </c>
-      <c r="BO27">
-        <v>0</v>
-      </c>
-      <c r="BP27">
-        <v>0</v>
-      </c>
-      <c r="BQ27">
-        <v>0</v>
-      </c>
-      <c r="BR27">
-        <v>0</v>
-      </c>
-      <c r="BS27">
-        <v>0</v>
-      </c>
-      <c r="BT27">
-        <v>0</v>
-      </c>
-      <c r="BU27">
-        <v>0</v>
-      </c>
-      <c r="BV27">
-        <v>0</v>
-      </c>
-      <c r="BW27">
-        <v>0</v>
-      </c>
-      <c r="BX27">
-        <v>0</v>
-      </c>
-      <c r="BY27">
-        <v>0</v>
-      </c>
-      <c r="BZ27">
-        <v>0</v>
-      </c>
-      <c r="CA27">
-        <v>0</v>
-      </c>
-      <c r="CB27">
-        <v>0</v>
-      </c>
-      <c r="CC27">
-        <v>0</v>
-      </c>
-      <c r="CD27">
-        <v>0</v>
-      </c>
-      <c r="CE27">
-        <v>0</v>
-      </c>
-      <c r="CF27">
-        <v>0</v>
-      </c>
-      <c r="CG27">
-        <v>0</v>
-      </c>
-      <c r="CH27">
-        <v>0</v>
-      </c>
-      <c r="CI27">
-        <v>0</v>
-      </c>
-      <c r="CJ27">
-        <v>0</v>
-      </c>
-      <c r="CK27">
-        <v>0</v>
-      </c>
-      <c r="CL27">
-        <v>0</v>
-      </c>
-      <c r="CM27">
-        <v>0</v>
-      </c>
-      <c r="CN27">
-        <v>0</v>
-      </c>
-      <c r="CO27">
-        <v>0</v>
-      </c>
-      <c r="CP27">
-        <v>0</v>
-      </c>
-      <c r="CQ27">
-        <v>0</v>
-      </c>
-      <c r="CR27">
-        <v>0</v>
-      </c>
-      <c r="CS27">
-        <v>0</v>
-      </c>
-      <c r="CT27">
-        <v>0</v>
-      </c>
-      <c r="CU27">
-        <v>0</v>
-      </c>
-      <c r="CV27">
-        <v>0</v>
-      </c>
-      <c r="CW27">
-        <v>0</v>
-      </c>
-      <c r="CX27">
-        <v>0</v>
-      </c>
-      <c r="CY27">
-        <v>0</v>
-      </c>
-      <c r="CZ27">
-        <v>0</v>
-      </c>
-      <c r="DA27">
-        <v>0</v>
-      </c>
-      <c r="DB27">
-        <v>0</v>
-      </c>
-      <c r="DC27">
-        <v>0</v>
-      </c>
-      <c r="DD27">
-        <v>0</v>
-      </c>
-      <c r="DE27">
-        <v>0</v>
-      </c>
-      <c r="DF27">
-        <v>0</v>
-      </c>
-      <c r="DG27">
-        <v>0</v>
-      </c>
-      <c r="DH27">
-        <v>0</v>
-      </c>
-      <c r="DI27">
-        <v>0</v>
-      </c>
       <c r="DK27" s="1">
         <v>0</v>
       </c>
@@ -15876,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="DP27" s="1">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="DQ27" s="1">
         <v>0</v>
@@ -15885,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="DS27" s="1">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="DT27" s="1">
         <v>0</v>
@@ -15894,13 +15717,13 @@
         <v>0</v>
       </c>
       <c r="DV27" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="DW27" s="1">
         <v>0</v>
       </c>
       <c r="DX27" s="1">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="DY27" s="1">
         <v>0</v>
@@ -15915,10 +15738,10 @@
         <v>0</v>
       </c>
       <c r="EC27" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="ED27" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="EE27" s="1">
         <v>0</v>
@@ -15933,7 +15756,7 @@
         <v>0</v>
       </c>
       <c r="EI27" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="EJ27" s="1">
         <v>0</v>
@@ -15954,7 +15777,7 @@
         <v>0</v>
       </c>
       <c r="EP27" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="EQ27" s="1">
         <v>0</v>
@@ -16069,11 +15892,11 @@
       </c>
     </row>
     <row r="28" spans="1:183" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>208</v>
+      <c r="A28" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="B28">
-        <v>156148</v>
+        <v>4708</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -16091,31 +15914,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>19072</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>16725</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>15282</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>14159</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>13240</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1090</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -16127,28 +15950,28 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>8724</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="V28">
-        <v>8459</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>6520</v>
       </c>
       <c r="Y28">
-        <v>6470</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>6309</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>6085</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -16169,16 +15992,16 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>4906</v>
+        <v>0</v>
       </c>
       <c r="AI28">
-        <v>4614</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
-        <v>4531</v>
+        <v>0</v>
       </c>
       <c r="AK28">
-        <v>4455</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>0</v>
@@ -16193,7 +16016,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -16205,10 +16028,10 @@
         <v>0</v>
       </c>
       <c r="AT28">
-        <v>3311</v>
+        <v>0</v>
       </c>
       <c r="AU28">
-        <v>3296</v>
+        <v>0</v>
       </c>
       <c r="AV28">
         <v>0</v>
@@ -16223,19 +16046,19 @@
         <v>0</v>
       </c>
       <c r="AZ28">
-        <v>2957</v>
+        <v>0</v>
       </c>
       <c r="BA28">
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>2911</v>
+        <v>0</v>
       </c>
       <c r="BC28">
         <v>0</v>
       </c>
       <c r="BD28">
-        <v>1352</v>
+        <v>0</v>
       </c>
       <c r="BE28">
         <v>0</v>
@@ -16247,13 +16070,13 @@
         <v>0</v>
       </c>
       <c r="BH28">
-        <v>1808</v>
+        <v>0</v>
       </c>
       <c r="BI28">
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>1684</v>
+        <v>0</v>
       </c>
       <c r="BK28">
         <v>0</v>
@@ -16265,13 +16088,13 @@
         <v>0</v>
       </c>
       <c r="BN28">
-        <v>1514</v>
+        <v>0</v>
       </c>
       <c r="BO28">
         <v>0</v>
       </c>
       <c r="BP28">
-        <v>0</v>
+        <v>1435</v>
       </c>
       <c r="BQ28">
         <v>0</v>
@@ -16280,13 +16103,13 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>0</v>
+        <v>1267</v>
       </c>
       <c r="BT28">
-        <v>1239</v>
+        <v>0</v>
       </c>
       <c r="BU28">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="BV28">
         <v>0</v>
@@ -16337,10 +16160,10 @@
         <v>0</v>
       </c>
       <c r="CL28">
-        <v>524</v>
+        <v>0</v>
       </c>
       <c r="CM28">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="CN28">
         <v>0</v>
@@ -16364,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="CU28">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="CV28">
         <v>0</v>
@@ -16379,10 +16202,10 @@
         <v>0</v>
       </c>
       <c r="CZ28">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="DA28">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="DB28">
         <v>0</v>
@@ -16406,7 +16229,7 @@
         <v>0</v>
       </c>
       <c r="DI28">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="DK28" s="1">
         <v>0</v>
@@ -16421,7 +16244,7 @@
         <v>0</v>
       </c>
       <c r="DO28" s="1">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="DP28" s="1">
         <v>0</v>
@@ -16433,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="DS28" s="1">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="DT28" s="1">
         <v>0</v>
@@ -16442,13 +16265,13 @@
         <v>0</v>
       </c>
       <c r="DV28" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="DW28" s="1">
         <v>0</v>
       </c>
       <c r="DX28" s="1">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="DY28" s="1">
         <v>0</v>
@@ -16463,10 +16286,10 @@
         <v>0</v>
       </c>
       <c r="EC28" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="ED28" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="EE28" s="1">
         <v>0</v>
@@ -16478,10 +16301,10 @@
         <v>0</v>
       </c>
       <c r="EH28" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="EI28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="EJ28" s="1">
         <v>0</v>
@@ -16502,7 +16325,7 @@
         <v>0</v>
       </c>
       <c r="EP28" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="EQ28" s="1">
         <v>0</v>
@@ -16617,11 +16440,11 @@
       </c>
     </row>
     <row r="29" spans="1:183" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>209</v>
+      <c r="A29" t="s">
+        <v>210</v>
       </c>
       <c r="B29">
-        <v>4708</v>
+        <v>626</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -16663,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -16678,157 +16501,157 @@
         <v>0</v>
       </c>
       <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
         <v>164</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>6520</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>0</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <v>0</v>
-      </c>
-      <c r="BC29">
-        <v>0</v>
-      </c>
-      <c r="BD29">
-        <v>0</v>
-      </c>
-      <c r="BE29">
-        <v>0</v>
-      </c>
-      <c r="BF29">
-        <v>0</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>0</v>
-      </c>
-      <c r="BI29">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>0</v>
-      </c>
-      <c r="BK29">
-        <v>0</v>
-      </c>
-      <c r="BL29">
-        <v>0</v>
-      </c>
-      <c r="BM29">
-        <v>0</v>
-      </c>
-      <c r="BN29">
-        <v>0</v>
-      </c>
-      <c r="BO29">
-        <v>0</v>
-      </c>
-      <c r="BP29">
-        <v>1435</v>
-      </c>
-      <c r="BQ29">
-        <v>0</v>
-      </c>
-      <c r="BR29">
-        <v>0</v>
-      </c>
       <c r="BS29">
-        <v>1267</v>
+        <v>0</v>
       </c>
       <c r="BT29">
         <v>0</v>
@@ -16882,13 +16705,13 @@
         <v>0</v>
       </c>
       <c r="CK29">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="CL29">
         <v>0</v>
       </c>
       <c r="CM29">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="CN29">
         <v>0</v>
@@ -16927,7 +16750,7 @@
         <v>0</v>
       </c>
       <c r="CZ29">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="DA29">
         <v>0</v>
@@ -16969,7 +16792,7 @@
         <v>0</v>
       </c>
       <c r="DO29" s="1">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="DP29" s="1">
         <v>0</v>
@@ -17026,7 +16849,7 @@
         <v>0</v>
       </c>
       <c r="EH29" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="EI29" s="1">
         <v>0</v>
@@ -17166,10 +16989,10 @@
     </row>
     <row r="30" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B30">
-        <v>626</v>
+        <v>1674</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -17340,7 +17163,7 @@
         <v>0</v>
       </c>
       <c r="BG30">
-        <v>0</v>
+        <v>1674</v>
       </c>
       <c r="BH30">
         <v>0</v>
@@ -17373,7 +17196,7 @@
         <v>0</v>
       </c>
       <c r="BR30">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="BS30">
         <v>0</v>
@@ -17430,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="CK30">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="CL30">
         <v>0</v>
@@ -17713,11 +17536,11 @@
       </c>
     </row>
     <row r="31" spans="1:183" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>211</v>
+      <c r="A31" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B31">
-        <v>1674</v>
+        <v>4230</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -17774,7 +17597,7 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>8315</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -17855,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>3270</v>
       </c>
       <c r="AW31">
         <v>0</v>
@@ -17882,13 +17705,13 @@
         <v>0</v>
       </c>
       <c r="BE31">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="BF31">
         <v>0</v>
       </c>
       <c r="BG31">
-        <v>1674</v>
+        <v>0</v>
       </c>
       <c r="BH31">
         <v>0</v>
@@ -17903,7 +17726,7 @@
         <v>0</v>
       </c>
       <c r="BL31">
-        <v>0</v>
+        <v>1536</v>
       </c>
       <c r="BM31">
         <v>0</v>
@@ -17942,7 +17765,7 @@
         <v>0</v>
       </c>
       <c r="BY31">
-        <v>0</v>
+        <v>1031</v>
       </c>
       <c r="BZ31">
         <v>0</v>
@@ -18056,7 +17879,7 @@
         <v>0</v>
       </c>
       <c r="DL31" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="DM31" s="1">
         <v>0</v>
@@ -18083,7 +17906,7 @@
         <v>0</v>
       </c>
       <c r="DU31" s="1">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="DV31" s="1">
         <v>0</v>
@@ -18098,7 +17921,7 @@
         <v>0</v>
       </c>
       <c r="DZ31" s="1">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="EA31" s="1">
         <v>0</v>
@@ -18261,11 +18084,11 @@
       </c>
     </row>
     <row r="32" spans="1:183" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>212</v>
+      <c r="A32" t="s">
+        <v>213</v>
       </c>
       <c r="B32">
-        <v>4230</v>
+        <v>122</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -18322,7 +18145,7 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>8315</v>
+        <v>0</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -18403,7 +18226,7 @@
         <v>0</v>
       </c>
       <c r="AV32">
-        <v>3270</v>
+        <v>0</v>
       </c>
       <c r="AW32">
         <v>0</v>
@@ -18430,7 +18253,7 @@
         <v>0</v>
       </c>
       <c r="BE32">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="BF32">
         <v>0</v>
@@ -18451,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="BL32">
-        <v>1536</v>
+        <v>0</v>
       </c>
       <c r="BM32">
         <v>0</v>
@@ -18490,7 +18313,7 @@
         <v>0</v>
       </c>
       <c r="BY32">
-        <v>1031</v>
+        <v>0</v>
       </c>
       <c r="BZ32">
         <v>0</v>
@@ -18604,7 +18427,7 @@
         <v>0</v>
       </c>
       <c r="DL32" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DM32" s="1">
         <v>0</v>
@@ -18631,7 +18454,7 @@
         <v>0</v>
       </c>
       <c r="DU32" s="1">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="DV32" s="1">
         <v>0</v>
@@ -18646,7 +18469,7 @@
         <v>0</v>
       </c>
       <c r="DZ32" s="1">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="EA32" s="1">
         <v>0</v>
@@ -18810,10 +18633,10 @@
     </row>
     <row r="33" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -19358,10 +19181,10 @@
     </row>
     <row r="34" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B34">
-        <v>24</v>
+        <v>1613</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -19526,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="BE34">
-        <v>0</v>
+        <v>1592</v>
       </c>
       <c r="BF34">
         <v>0</v>
@@ -19775,7 +19598,7 @@
         <v>0</v>
       </c>
       <c r="EK34" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="EL34" s="1">
         <v>0</v>
@@ -19906,10 +19729,10 @@
     </row>
     <row r="35" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B35">
-        <v>1613</v>
+        <v>1103</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -20032,7 +19855,7 @@
         <v>0</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -20074,7 +19897,7 @@
         <v>0</v>
       </c>
       <c r="BE35">
-        <v>1592</v>
+        <v>0</v>
       </c>
       <c r="BF35">
         <v>0</v>
@@ -20194,7 +20017,7 @@
         <v>0</v>
       </c>
       <c r="CS35">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="CT35">
         <v>0</v>
@@ -20206,7 +20029,7 @@
         <v>0</v>
       </c>
       <c r="CW35">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="CX35">
         <v>0</v>
@@ -20245,7 +20068,7 @@
         <v>0</v>
       </c>
       <c r="DK35" s="1">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="DL35" s="1">
         <v>0</v>
@@ -20260,7 +20083,7 @@
         <v>0</v>
       </c>
       <c r="DP35" s="1">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="DQ35" s="1">
         <v>0</v>
@@ -20272,7 +20095,7 @@
         <v>0</v>
       </c>
       <c r="DT35" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="DU35" s="1">
         <v>0</v>
@@ -20323,7 +20146,7 @@
         <v>0</v>
       </c>
       <c r="EK35" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="EL35" s="1">
         <v>0</v>
@@ -20454,10 +20277,10 @@
     </row>
     <row r="36" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B36">
-        <v>1103</v>
+        <v>685</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -20484,7 +20307,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -20580,7 +20403,7 @@
         <v>0</v>
       </c>
       <c r="AQ36">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -20742,7 +20565,7 @@
         <v>0</v>
       </c>
       <c r="CS36">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="CT36">
         <v>0</v>
@@ -20754,7 +20577,7 @@
         <v>0</v>
       </c>
       <c r="CW36">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="CX36">
         <v>0</v>
@@ -20793,7 +20616,7 @@
         <v>0</v>
       </c>
       <c r="DK36" s="1">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="DL36" s="1">
         <v>0</v>
@@ -20808,7 +20631,7 @@
         <v>0</v>
       </c>
       <c r="DP36" s="1">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="DQ36" s="1">
         <v>0</v>
@@ -20820,7 +20643,7 @@
         <v>0</v>
       </c>
       <c r="DT36" s="1">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="DU36" s="1">
         <v>0</v>
@@ -21002,10 +20825,10 @@
     </row>
     <row r="37" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B37">
-        <v>685</v>
+        <v>497</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -21032,7 +20855,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -21053,7 +20876,7 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -21257,7 +21080,7 @@
         <v>0</v>
       </c>
       <c r="CH37">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="CI37">
         <v>0</v>
@@ -21550,10 +21373,10 @@
     </row>
     <row r="38" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B38">
-        <v>497</v>
+        <v>4194</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -21601,7 +21424,7 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -21631,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1154</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -21694,7 +21517,7 @@
         <v>0</v>
       </c>
       <c r="AW38">
-        <v>0</v>
+        <v>2915</v>
       </c>
       <c r="AX38">
         <v>0</v>
@@ -21805,7 +21628,7 @@
         <v>0</v>
       </c>
       <c r="CH38">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="CI38">
         <v>0</v>
@@ -21898,7 +21721,7 @@
         <v>0</v>
       </c>
       <c r="DN38" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="DO38" s="1">
         <v>0</v>
@@ -22098,10 +21921,10 @@
     </row>
     <row r="39" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B39">
-        <v>4194</v>
+        <v>46</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -22179,7 +22002,7 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>1154</v>
+        <v>0</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -22242,7 +22065,7 @@
         <v>0</v>
       </c>
       <c r="AW39">
-        <v>2915</v>
+        <v>0</v>
       </c>
       <c r="AX39">
         <v>0</v>
@@ -22446,7 +22269,7 @@
         <v>0</v>
       </c>
       <c r="DN39" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="DO39" s="1">
         <v>0</v>
@@ -22646,10 +22469,10 @@
     </row>
     <row r="40" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B40">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -23189,554 +23012,6 @@
         <v>0</v>
       </c>
       <c r="GA40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:183" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>221</v>
-      </c>
-      <c r="B41">
-        <v>85</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
-      <c r="AM41">
-        <v>0</v>
-      </c>
-      <c r="AN41">
-        <v>0</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AS41">
-        <v>0</v>
-      </c>
-      <c r="AT41">
-        <v>0</v>
-      </c>
-      <c r="AU41">
-        <v>0</v>
-      </c>
-      <c r="AV41">
-        <v>0</v>
-      </c>
-      <c r="AW41">
-        <v>0</v>
-      </c>
-      <c r="AX41">
-        <v>0</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>0</v>
-      </c>
-      <c r="BB41">
-        <v>0</v>
-      </c>
-      <c r="BC41">
-        <v>0</v>
-      </c>
-      <c r="BD41">
-        <v>0</v>
-      </c>
-      <c r="BE41">
-        <v>0</v>
-      </c>
-      <c r="BF41">
-        <v>0</v>
-      </c>
-      <c r="BG41">
-        <v>0</v>
-      </c>
-      <c r="BH41">
-        <v>0</v>
-      </c>
-      <c r="BI41">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>0</v>
-      </c>
-      <c r="BK41">
-        <v>0</v>
-      </c>
-      <c r="BL41">
-        <v>0</v>
-      </c>
-      <c r="BM41">
-        <v>0</v>
-      </c>
-      <c r="BN41">
-        <v>0</v>
-      </c>
-      <c r="BO41">
-        <v>0</v>
-      </c>
-      <c r="BP41">
-        <v>0</v>
-      </c>
-      <c r="BQ41">
-        <v>0</v>
-      </c>
-      <c r="BR41">
-        <v>0</v>
-      </c>
-      <c r="BS41">
-        <v>0</v>
-      </c>
-      <c r="BT41">
-        <v>0</v>
-      </c>
-      <c r="BU41">
-        <v>0</v>
-      </c>
-      <c r="BV41">
-        <v>0</v>
-      </c>
-      <c r="BW41">
-        <v>0</v>
-      </c>
-      <c r="BX41">
-        <v>0</v>
-      </c>
-      <c r="BY41">
-        <v>0</v>
-      </c>
-      <c r="BZ41">
-        <v>0</v>
-      </c>
-      <c r="CA41">
-        <v>0</v>
-      </c>
-      <c r="CB41">
-        <v>0</v>
-      </c>
-      <c r="CC41">
-        <v>0</v>
-      </c>
-      <c r="CD41">
-        <v>0</v>
-      </c>
-      <c r="CE41">
-        <v>0</v>
-      </c>
-      <c r="CF41">
-        <v>0</v>
-      </c>
-      <c r="CG41">
-        <v>0</v>
-      </c>
-      <c r="CH41">
-        <v>0</v>
-      </c>
-      <c r="CI41">
-        <v>0</v>
-      </c>
-      <c r="CJ41">
-        <v>0</v>
-      </c>
-      <c r="CK41">
-        <v>0</v>
-      </c>
-      <c r="CL41">
-        <v>0</v>
-      </c>
-      <c r="CM41">
-        <v>0</v>
-      </c>
-      <c r="CN41">
-        <v>0</v>
-      </c>
-      <c r="CO41">
-        <v>0</v>
-      </c>
-      <c r="CP41">
-        <v>0</v>
-      </c>
-      <c r="CQ41">
-        <v>0</v>
-      </c>
-      <c r="CR41">
-        <v>0</v>
-      </c>
-      <c r="CS41">
-        <v>0</v>
-      </c>
-      <c r="CT41">
-        <v>0</v>
-      </c>
-      <c r="CU41">
-        <v>0</v>
-      </c>
-      <c r="CV41">
-        <v>0</v>
-      </c>
-      <c r="CW41">
-        <v>0</v>
-      </c>
-      <c r="CX41">
-        <v>0</v>
-      </c>
-      <c r="CY41">
-        <v>0</v>
-      </c>
-      <c r="CZ41">
-        <v>0</v>
-      </c>
-      <c r="DA41">
-        <v>0</v>
-      </c>
-      <c r="DB41">
-        <v>0</v>
-      </c>
-      <c r="DC41">
-        <v>0</v>
-      </c>
-      <c r="DD41">
-        <v>0</v>
-      </c>
-      <c r="DE41">
-        <v>0</v>
-      </c>
-      <c r="DF41">
-        <v>0</v>
-      </c>
-      <c r="DG41">
-        <v>0</v>
-      </c>
-      <c r="DH41">
-        <v>0</v>
-      </c>
-      <c r="DI41">
-        <v>0</v>
-      </c>
-      <c r="DK41" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL41" s="1">
-        <v>0</v>
-      </c>
-      <c r="DM41" s="1">
-        <v>0</v>
-      </c>
-      <c r="DN41" s="1">
-        <v>0</v>
-      </c>
-      <c r="DO41" s="1">
-        <v>0</v>
-      </c>
-      <c r="DP41" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ41" s="1">
-        <v>0</v>
-      </c>
-      <c r="DR41" s="1">
-        <v>0</v>
-      </c>
-      <c r="DS41" s="1">
-        <v>0</v>
-      </c>
-      <c r="DT41" s="1">
-        <v>0</v>
-      </c>
-      <c r="DU41" s="1">
-        <v>0</v>
-      </c>
-      <c r="DV41" s="1">
-        <v>0</v>
-      </c>
-      <c r="DW41" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX41" s="1">
-        <v>0</v>
-      </c>
-      <c r="DY41" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EA41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EC41" s="1">
-        <v>0</v>
-      </c>
-      <c r="ED41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EE41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EF41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EG41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EH41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EI41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EJ41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EK41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EL41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EM41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EO41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EP41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ41" s="1">
-        <v>0</v>
-      </c>
-      <c r="ER41" s="1">
-        <v>0</v>
-      </c>
-      <c r="ES41" s="1">
-        <v>0</v>
-      </c>
-      <c r="ET41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EU41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EV41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EW41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EX41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EY41" s="1">
-        <v>0</v>
-      </c>
-      <c r="EZ41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FA41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FC41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FD41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FE41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FF41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FG41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FH41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FI41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FJ41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FK41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FL41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FM41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FN41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FO41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FP41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FQ41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FR41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FS41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FT41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FU41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FV41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FW41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FX41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FY41" s="1">
-        <v>0</v>
-      </c>
-      <c r="FZ41" s="1">
-        <v>0</v>
-      </c>
-      <c r="GA41" s="1">
         <v>0</v>
       </c>
     </row>
